--- a/Labs/Excel/Labs/Lab02/Zenevich_T091_15.xlsx
+++ b/Labs/Excel/Labs/Lab02/Zenevich_T091_15.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asp1r\Documents\asp1rant3\GitHub Repositories\BasicsOfAlgorithmizationAndProgramming\Labs\Excel\Labs\Lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC86549B-D052-4D57-B7E1-3E88807811E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48328918-5D08-4E17-9497-4236316150F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1485" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17085" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист10" sheetId="18" r:id="rId1"/>
     <sheet name="Лист11" sheetId="19" r:id="rId2"/>
+    <sheet name="Счёт" sheetId="20" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист10!$A:$A</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="20">
   <si>
     <t>Люкс</t>
   </si>
@@ -96,6 +97,12 @@
   </si>
   <si>
     <t>Второе по величине</t>
+  </si>
+  <si>
+    <t>пустые и непустые ячейки</t>
+  </si>
+  <si>
+    <t>ячейки содержащие отрицательные значения</t>
   </si>
 </sst>
 </file>
@@ -1504,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,4 +1974,120 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECB0957-B160-41EC-9D23-E082D8888457}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <f>COUNTIF(A1:A16,"&lt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <f>COUNTBLANK(A1:A16)</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>COUNTA(A1:A16)</f>
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-142</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIFS(A1:A16,"&gt;-1",A1:A16,"&lt;11")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>